--- a/Test Interpolation results/Test results.xlsx
+++ b/Test Interpolation results/Test results.xlsx
@@ -1,33 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego\Documents\Thesis\Test Interpolation results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="5160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Baricentric</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Jain</t>
   </si>
@@ -35,25 +27,52 @@
     <t>Quadratic</t>
   </si>
   <si>
-    <t>METODO</t>
-  </si>
-  <si>
-    <t>MEDIA</t>
-  </si>
-  <si>
-    <t>VARIANZA</t>
-  </si>
-  <si>
-    <t>STD DEV</t>
+    <t>Barycentric</t>
+  </si>
+  <si>
+    <t>Quinn 1</t>
+  </si>
+  <si>
+    <t>Quinn 2</t>
+  </si>
+  <si>
+    <t>McLeodd</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>﻿800679,013</t>
+  </si>
+  <si>
+    <t>﻿798839,765</t>
+  </si>
+  <si>
+    <t>﻿800746,484</t>
+  </si>
+  <si>
+    <t>﻿9201486,221</t>
+  </si>
+  <si>
+    <t>﻿9199176,021</t>
+  </si>
+  <si>
+    <t>﻿800837,317</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -61,7 +80,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -69,8 +88,16 @@
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,27 +120,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
@@ -128,39 +154,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -195,7 +221,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,163 +265,219 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.08984375" customWidth="1"/>
-    <col min="2" max="2" width="9.6328125" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,267 +487,662 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B2">
-        <v>801715.88399999996</v>
-      </c>
-      <c r="C2">
-        <v>802010.06700000004</v>
-      </c>
-      <c r="D2">
-        <v>801045.06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3">
-        <v>800814.09299999999</v>
+        <v>802533.08</v>
       </c>
       <c r="C3">
-        <v>802100.44200000004</v>
+        <v>801191.78599999996</v>
       </c>
       <c r="D3">
-        <v>800791.35699999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <v>802163.52500000002</v>
+      </c>
+      <c r="E3">
+        <v>801167.89</v>
+      </c>
+      <c r="F3">
+        <v>800126.84699999995</v>
+      </c>
+      <c r="G3">
+        <v>800053.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4">
-        <v>801598.804</v>
+        <v>802496.90899999999</v>
       </c>
       <c r="C4">
-        <v>802265.50100000005</v>
+        <v>800845.11199999996</v>
       </c>
       <c r="D4">
-        <v>801023.98</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>800978.05500000005</v>
+      </c>
+      <c r="E4">
+        <v>802581.728</v>
+      </c>
+      <c r="F4">
+        <v>800694.28099999996</v>
+      </c>
+      <c r="G4">
+        <v>800674.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5">
-        <v>800718.05099999998</v>
+        <v>803071.78300000005</v>
       </c>
       <c r="C5">
-        <v>799214.61699999997</v>
+        <v>801138.73</v>
       </c>
       <c r="D5">
-        <v>800761.02899999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>801853.96699999995</v>
+      </c>
+      <c r="E5">
+        <v>802182.88300000003</v>
+      </c>
+      <c r="F5">
+        <v>800322.52399999998</v>
+      </c>
+      <c r="G5">
+        <v>800197.21900000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6">
-        <v>801045.61300000001</v>
+        <v>798497.98499999999</v>
       </c>
       <c r="C6">
-        <v>802401.228</v>
+        <v>800460.30900000001</v>
       </c>
       <c r="D6">
-        <v>800865.18299999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>799826.13399999996</v>
+      </c>
+      <c r="E6">
+        <v>803761.26100000006</v>
+      </c>
+      <c r="F6">
+        <v>801185.77399999998</v>
+      </c>
+      <c r="G6">
+        <v>801302.61800000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7">
-        <v>800319.59299999999</v>
+        <v>802003.91799999995</v>
       </c>
       <c r="C7">
-        <v>800147.62</v>
+        <v>800949.43299999996</v>
       </c>
       <c r="D7">
-        <v>800658.33299999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>801361.53399999999</v>
+      </c>
+      <c r="E7">
+        <v>801470.23699999996</v>
+      </c>
+      <c r="F7">
+        <v>800501.56299999997</v>
+      </c>
+      <c r="G7">
+        <v>800477.326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8">
-        <v>800470.152</v>
+        <v>802369.5</v>
       </c>
       <c r="C8">
-        <v>799859.92700000003</v>
+        <v>801069.30200000003</v>
       </c>
       <c r="D8">
-        <v>800693.52800000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>801746.04500000004</v>
+      </c>
+      <c r="E8">
+        <v>801450.09199999995</v>
+      </c>
+      <c r="F8">
+        <v>800324.87699999998</v>
+      </c>
+      <c r="G8">
+        <v>800271.89199999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9">
-        <v>800842.03099999996</v>
+        <v>799553.87600000005</v>
       </c>
       <c r="C9">
-        <v>802211.54700000002</v>
+        <v>800715.21200000006</v>
       </c>
       <c r="D9">
-        <v>800800.26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>800559.99399999995</v>
+      </c>
+      <c r="E9">
+        <v>9200341.3190000001</v>
+      </c>
+      <c r="F9">
+        <v>9199113.8320000004</v>
+      </c>
+      <c r="G9">
+        <v>800898.201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10">
-        <v>800630.16700000002</v>
+        <v>798964.61300000001</v>
       </c>
       <c r="C10">
-        <v>798722.11899999995</v>
+        <v>800599.02099999995</v>
       </c>
       <c r="D10">
-        <v>800729.02800000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>800211.97600000002</v>
+      </c>
+      <c r="E10">
+        <v>803013.05599999998</v>
+      </c>
+      <c r="F10">
+        <v>801036.152</v>
+      </c>
+      <c r="G10">
+        <v>801088.152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11">
-        <v>800281.84299999999</v>
+        <v>802285.93099999998</v>
       </c>
       <c r="C11">
-        <v>799208.92200000002</v>
+        <v>801037.69299999997</v>
       </c>
       <c r="D11">
-        <v>800626.94499999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>801645.23199999996</v>
+      </c>
+      <c r="E11">
+        <v>9200997.4879999999</v>
+      </c>
+      <c r="F11">
+        <v>9199629.1500000004</v>
+      </c>
+      <c r="G11">
+        <v>800325.78200000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12">
-        <v>801859.96299999999</v>
+        <v>802231.90099999995</v>
       </c>
       <c r="C12">
-        <v>803101.82799999998</v>
+        <v>801021.272</v>
       </c>
       <c r="D12">
-        <v>801142.429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>801593.83200000005</v>
+      </c>
+      <c r="E12">
+        <v>9200922.4759999998</v>
+      </c>
+      <c r="F12">
+        <v>9199605.9600000009</v>
+      </c>
+      <c r="G12">
+        <v>800353.44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13">
-        <v>800979.68</v>
+        <v>802673.77899999998</v>
       </c>
       <c r="C13">
-        <v>801856.60499999998</v>
+        <v>800905.38699999999</v>
       </c>
       <c r="D13">
-        <v>800839.12899999996</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>801158.03500000003</v>
+      </c>
+      <c r="E13">
+        <v>802579.45900000003</v>
+      </c>
+      <c r="F13">
+        <v>800617.55</v>
+      </c>
+      <c r="G13">
+        <v>800576.43200000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14">
-        <v>800331.16500000004</v>
+        <v>799521.42599999998</v>
       </c>
       <c r="C14">
-        <v>798835.598</v>
+        <v>800688.42200000002</v>
       </c>
       <c r="D14">
-        <v>800641.97600000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>800469.62699999998</v>
+      </c>
+      <c r="E14">
+        <v>9200270.1099999994</v>
+      </c>
+      <c r="F14">
+        <v>9199070.8139999993</v>
+      </c>
+      <c r="G14">
+        <v>800945.86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15">
-        <v>800564.43400000001</v>
+        <v>802051.97900000005</v>
       </c>
       <c r="C15">
-        <v>799572.72199999995</v>
+        <v>801021.951</v>
       </c>
       <c r="D15">
-        <v>800649.75800000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>801622.196</v>
+      </c>
+      <c r="E15">
+        <v>801232.14</v>
+      </c>
+      <c r="F15">
+        <v>800373.80200000003</v>
+      </c>
+      <c r="G15">
+        <v>800342.69900000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16">
-        <v>801315.005</v>
+        <v>798904.47499999998</v>
       </c>
       <c r="C16">
-        <v>798906.2</v>
+        <v>800755.29500000004</v>
       </c>
       <c r="D16">
-        <v>800709.07</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>800704.22699999996</v>
+      </c>
+      <c r="E16">
+        <v>803104.51399999997</v>
+      </c>
+      <c r="F16">
+        <v>800813.82400000002</v>
+      </c>
+      <c r="G16">
+        <v>800823.38600000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17">
-        <v>800064.79099999997</v>
+        <v>801663.34499999997</v>
       </c>
       <c r="C17">
-        <v>802365.26199999999</v>
+        <v>800898.19</v>
       </c>
       <c r="D17">
-        <v>800946.03200000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>801202.18799999997</v>
+      </c>
+      <c r="E17">
+        <v>801265.75800000003</v>
+      </c>
+      <c r="F17">
+        <v>800574.53799999994</v>
+      </c>
+      <c r="G17">
+        <v>800563.57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18">
-        <v>801804.34100000001</v>
+        <v>798820.98</v>
       </c>
       <c r="C18">
-        <v>799465.13500000001</v>
+        <v>800697.09499999997</v>
       </c>
       <c r="D18">
-        <v>800572.65800000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>800531.46100000001</v>
+      </c>
+      <c r="E18">
+        <v>803233.83</v>
+      </c>
+      <c r="F18">
+        <v>800886.90599999996</v>
+      </c>
+      <c r="G18">
+        <v>800917.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19">
-        <v>799892.06200000003</v>
+        <v>798403.63899999997</v>
       </c>
       <c r="C19">
-        <v>802033.04</v>
+        <v>800599.25600000005</v>
       </c>
       <c r="D19">
-        <v>801069.14800000004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>800267.804</v>
+      </c>
+      <c r="E19">
+        <v>803924.02399999998</v>
+      </c>
+      <c r="F19">
+        <v>800983.08799999999</v>
+      </c>
+      <c r="G19">
+        <v>801065.81700000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>798921.77500000002</v>
+      </c>
       <c r="C20">
-        <v>799373.81400000001</v>
+        <v>800467.16899999999</v>
       </c>
       <c r="D20">
-        <v>800521.99899999995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="1">
-        <f>AVERAGE(B2:B19)</f>
-        <v>800847.09288888902</v>
-      </c>
-      <c r="C21" s="1">
-        <f>AVERAGE(C2:C20)</f>
-        <v>800718.53652631573</v>
-      </c>
-      <c r="D21" s="1">
-        <f>AVERAGE(D2:D20)</f>
-        <v>800794.04747368419</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="1">
-        <f>VAR(B2:B19)</f>
-        <v>365462.227353747</v>
-      </c>
-      <c r="C22" s="1">
-        <f>VAR(C2:C20)</f>
-        <v>2419888.9437179733</v>
-      </c>
-      <c r="D22" s="1">
-        <f>VAR(D2:D20)</f>
-        <v>32173.198814154286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+        <v>799772.12</v>
+      </c>
+      <c r="E20">
+        <v>9200155.2420000006</v>
+      </c>
+      <c r="F20">
+        <v>9198756.0280000009</v>
+      </c>
+      <c r="G20">
+        <v>801320.40700000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>802666.70799999998</v>
+      </c>
+      <c r="C21">
+        <v>801048.69799999997</v>
+      </c>
+      <c r="D21">
+        <v>801625.66</v>
+      </c>
+      <c r="E21">
+        <v>801951.98800000001</v>
+      </c>
+      <c r="F21">
+        <v>800399.67500000005</v>
+      </c>
+      <c r="G21">
+        <v>800327.64500000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>802372.71100000001</v>
+      </c>
+      <c r="C22">
+        <v>800998.46900000004</v>
+      </c>
+      <c r="D22">
+        <v>801494.13500000001</v>
+      </c>
+      <c r="E22">
+        <v>9201120.0460000001</v>
+      </c>
+      <c r="F22">
+        <v>9199551.6070000008</v>
+      </c>
+      <c r="G22">
+        <v>800402.40399999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>799270.33799999999</v>
+      </c>
+      <c r="C23">
+        <v>800617.41799999995</v>
+      </c>
+      <c r="D23">
+        <v>800243.93</v>
+      </c>
+      <c r="E23">
+        <v>9200302.7090000007</v>
+      </c>
+      <c r="F23">
+        <v>9198967.8460000008</v>
+      </c>
+      <c r="G23">
+        <v>801066.94400000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>799177.46400000004</v>
+      </c>
+      <c r="C24">
+        <v>800400.31799999997</v>
+      </c>
+      <c r="D24">
+        <v>799474.70499999996</v>
+      </c>
+      <c r="E24">
+        <v>802700.17599999998</v>
+      </c>
+      <c r="F24">
+        <v>801406.84499999997</v>
+      </c>
+      <c r="G24">
+        <v>801465.42599999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>798298.94900000002</v>
+      </c>
+      <c r="C25">
+        <v>800397.27800000005</v>
+      </c>
+      <c r="D25">
+        <v>799662.75300000003</v>
+      </c>
+      <c r="E25">
+        <v>804109.56799999997</v>
+      </c>
+      <c r="F25">
+        <v>801241.446</v>
+      </c>
+      <c r="G25">
+        <v>801394.99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="1">
-        <f>_xlfn.STDEV.S(B2:B19)</f>
-        <v>604.53471972563079</v>
-      </c>
-      <c r="C23" s="1">
-        <f>_xlfn.STDEV.S(C2:C20)</f>
-        <v>1555.5992233599159</v>
-      </c>
-      <c r="D23" s="1">
-        <f>_xlfn.STDEV.S(D2:D20)</f>
-        <v>179.36889031867898</v>
+      <c r="B26">
+        <f>AVERAGE(B2:B25)</f>
+        <v>800728.56800000009</v>
+      </c>
+      <c r="C26">
+        <f t="shared" ref="C26:G26" si="0">AVERAGE(C2:C25)</f>
+        <v>800805.33982608689</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>800876.91891304322</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>3358427.7388695655</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>3356790.6490869569</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>800732.8886956519</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <f>_xlfn.STDEV.S(B2:B25)</f>
+        <v>1793.2033199347943</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:G27" si="1">_xlfn.STDEV.S(C2:C25)</f>
+        <v>246.38549615566652</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>791.74749682550635</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>3951072.6237185872</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>3951270.1720035016</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>422.46999087761242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <f>VAR(B2:B25)</f>
+        <v>3215578.1466251682</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:G28" si="2">VAR(C2:C25)</f>
+        <v>60705.812715873959</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>626864.09872945515</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>15610974877898.48</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>15612535972164.582</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>178480.89319212994</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Test Interpolation results/Test results.xlsx
+++ b/Test Interpolation results/Test results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Jain</t>
   </si>
@@ -48,22 +48,49 @@
     <t>Standard Deviation</t>
   </si>
   <si>
-    <t>﻿800679,013</t>
-  </si>
-  <si>
-    <t>﻿798839,765</t>
-  </si>
-  <si>
-    <t>﻿800746,484</t>
-  </si>
-  <si>
-    <t>﻿9201486,221</t>
-  </si>
-  <si>
-    <t>﻿9199176,021</t>
-  </si>
-  <si>
-    <t>﻿800837,317</t>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>Amp</t>
+  </si>
+  <si>
+    <t>Periods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samples </t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>360*rand()</t>
+  </si>
+  <si>
+    <t>Sample rate</t>
+  </si>
+  <si>
+    <t>50MS/s</t>
+  </si>
+  <si>
+    <t>White Noise</t>
+  </si>
+  <si>
+    <t>﻿3994070,446</t>
+  </si>
+  <si>
+    <t>﻿4002484,071</t>
+  </si>
+  <si>
+    <t>﻿3999461,856</t>
+  </si>
+  <si>
+    <t>﻿3903773,970</t>
+  </si>
+  <si>
+    <t>﻿4006255,124</t>
+  </si>
+  <si>
+    <t>﻿4006300,333</t>
   </si>
 </sst>
 </file>
@@ -120,8 +147,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -131,11 +162,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento ipertestuale" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Collegamento visitato" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Collegamento visitato" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -465,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -477,7 +512,7 @@
     <col min="2" max="2" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,349 +532,391 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>802533.08</v>
+        <v>3997914.6009999998</v>
       </c>
       <c r="C3">
-        <v>801191.78599999996</v>
+        <v>4002882.2620000001</v>
       </c>
       <c r="D3">
-        <v>802163.52500000002</v>
+        <v>4000321.1570000001</v>
       </c>
       <c r="E3">
-        <v>801167.89</v>
+        <v>3901929.3130000001</v>
       </c>
       <c r="F3">
-        <v>800126.84699999995</v>
+        <v>4011509.6779999998</v>
       </c>
       <c r="G3">
-        <v>800053.65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>4005775.1830000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>802496.90899999999</v>
+        <v>3992043.1979999999</v>
       </c>
       <c r="C4">
-        <v>800845.11199999996</v>
+        <v>4001074.2740000002</v>
       </c>
       <c r="D4">
-        <v>800978.05500000005</v>
+        <v>3995052.673</v>
       </c>
       <c r="E4">
-        <v>802581.728</v>
+        <v>3904254.11</v>
       </c>
       <c r="F4">
-        <v>800694.28099999996</v>
+        <v>4011068.963</v>
       </c>
       <c r="G4">
-        <v>800674.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>4008658.051</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>803071.78300000005</v>
+        <v>4012945.6120000002</v>
       </c>
       <c r="C5">
-        <v>801138.73</v>
+        <v>4006411.4739999999</v>
       </c>
       <c r="D5">
-        <v>801853.96699999995</v>
+        <v>4012475.727</v>
       </c>
       <c r="E5">
-        <v>802182.88300000003</v>
+        <v>3777923.9109999998</v>
       </c>
       <c r="F5">
-        <v>800322.52399999998</v>
+        <v>3888035.9789999998</v>
       </c>
       <c r="G5">
-        <v>800197.21900000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>3999423.128</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N5" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>798497.98499999999</v>
+        <v>3995373.2609999999</v>
       </c>
       <c r="C6">
-        <v>800460.30900000001</v>
+        <v>4001836.3620000002</v>
       </c>
       <c r="D6">
-        <v>799826.13399999996</v>
+        <v>3996871.8220000002</v>
       </c>
       <c r="E6">
-        <v>803761.26100000006</v>
+        <v>3903342.9270000001</v>
       </c>
       <c r="F6">
-        <v>801185.77399999998</v>
+        <v>4021689.2209999999</v>
       </c>
       <c r="G6">
-        <v>801302.61800000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>4007598.4950000001</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6">
+        <v>2047</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <v>1250</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>802003.91799999995</v>
+        <v>3992932.4569999999</v>
       </c>
       <c r="C7">
-        <v>800949.43299999996</v>
+        <v>4001259.7459999998</v>
       </c>
       <c r="D7">
-        <v>801361.53399999999</v>
+        <v>3995428.4389999998</v>
       </c>
       <c r="E7">
-        <v>801470.23699999996</v>
+        <v>3904066.7930000001</v>
       </c>
       <c r="F7">
-        <v>800501.56299999997</v>
+        <v>4013050.4279999998</v>
       </c>
       <c r="G7">
-        <v>800477.326</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>4008427.0950000002</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>250</v>
+      </c>
+      <c r="M7">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>802369.5</v>
+        <v>4010743.176</v>
       </c>
       <c r="C8">
-        <v>801069.30200000003</v>
+        <v>4004234.3560000001</v>
       </c>
       <c r="D8">
-        <v>801746.04500000004</v>
+        <v>4004979.872</v>
       </c>
       <c r="E8">
-        <v>801450.09199999995</v>
+        <v>3901743.023</v>
       </c>
       <c r="F8">
-        <v>800324.87699999998</v>
+        <v>4003131.915</v>
       </c>
       <c r="G8">
-        <v>800271.89199999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>4003334.8169999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>799553.87600000005</v>
+        <v>3993668.91</v>
       </c>
       <c r="C9">
-        <v>800715.21200000006</v>
+        <v>4002458.5060000001</v>
       </c>
       <c r="D9">
-        <v>800559.99399999995</v>
+        <v>3999441.9389999998</v>
       </c>
       <c r="E9">
-        <v>9200341.3190000001</v>
+        <v>3903886.574</v>
       </c>
       <c r="F9">
-        <v>9199113.8320000004</v>
+        <v>4006010.49</v>
       </c>
       <c r="G9">
-        <v>800898.201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>4006320.0019999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>798964.61300000001</v>
+        <v>3993935.801</v>
       </c>
       <c r="C10">
-        <v>800599.02099999995</v>
+        <v>4003573.6839999999</v>
       </c>
       <c r="D10">
-        <v>800211.97600000002</v>
+        <v>4002929.429</v>
       </c>
       <c r="E10">
-        <v>803013.05599999998</v>
+        <v>3903812.6940000001</v>
       </c>
       <c r="F10">
-        <v>801036.152</v>
+        <v>4004205.38</v>
       </c>
       <c r="G10">
-        <v>801088.152</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>4004442.0869999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>802285.93099999998</v>
+        <v>3995814.068</v>
       </c>
       <c r="C11">
-        <v>801037.69299999997</v>
+        <v>4002505.1919999998</v>
       </c>
       <c r="D11">
-        <v>801645.23199999996</v>
+        <v>3999249.0320000001</v>
       </c>
       <c r="E11">
-        <v>9200997.4879999999</v>
+        <v>3903162.8489999999</v>
       </c>
       <c r="F11">
-        <v>9199629.1500000004</v>
+        <v>4008780.7590000001</v>
       </c>
       <c r="G11">
-        <v>800325.78200000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>4006370.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>802231.90099999995</v>
+        <v>3998954.0750000002</v>
       </c>
       <c r="C12">
-        <v>801021.272</v>
+        <v>4003189.13</v>
       </c>
       <c r="D12">
-        <v>801593.83200000005</v>
+        <v>4001351.3909999998</v>
       </c>
       <c r="E12">
-        <v>9200922.4759999998</v>
+        <v>3900911.1179999998</v>
       </c>
       <c r="F12">
-        <v>9199605.9600000009</v>
+        <v>4010560.0469999998</v>
       </c>
       <c r="G12">
-        <v>800353.44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>4005231.5070000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>802673.77899999998</v>
+        <v>3994916.1860000002</v>
       </c>
       <c r="C13">
-        <v>800905.38699999999</v>
+        <v>4002329.2560000001</v>
       </c>
       <c r="D13">
-        <v>801158.03500000003</v>
+        <v>3998780.6260000002</v>
       </c>
       <c r="E13">
-        <v>802579.45900000003</v>
+        <v>3903507.9780000001</v>
       </c>
       <c r="F13">
-        <v>800617.55</v>
+        <v>4008140.7250000001</v>
       </c>
       <c r="G13">
-        <v>800576.43200000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>4006635.585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>799521.42599999998</v>
+        <v>3995270.0529999998</v>
       </c>
       <c r="C14">
-        <v>800688.42200000002</v>
+        <v>4003040.199</v>
       </c>
       <c r="D14">
-        <v>800469.62699999998</v>
+        <v>4001164.2459999998</v>
       </c>
       <c r="E14">
-        <v>9200270.1099999994</v>
+        <v>3903380.0649999999</v>
       </c>
       <c r="F14">
-        <v>9199070.8139999993</v>
+        <v>4005418.912</v>
       </c>
       <c r="G14">
-        <v>800945.86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>4005378.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>802051.97900000005</v>
+        <v>3996918.8659999999</v>
       </c>
       <c r="C15">
-        <v>801021.951</v>
+        <v>4003530.8820000002</v>
       </c>
       <c r="D15">
-        <v>801622.196</v>
+        <v>4002681.0690000001</v>
       </c>
       <c r="E15">
-        <v>801232.14</v>
+        <v>3902611.9</v>
       </c>
       <c r="F15">
-        <v>800373.80200000003</v>
+        <v>4004769.6609999998</v>
       </c>
       <c r="G15">
-        <v>800342.69900000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>4004558.8130000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>798904.47499999998</v>
+        <v>3995996.128</v>
       </c>
       <c r="C16">
-        <v>800755.29500000004</v>
+        <v>4003853.0040000002</v>
       </c>
       <c r="D16">
-        <v>800704.22699999996</v>
+        <v>4003740.682</v>
       </c>
       <c r="E16">
-        <v>803104.51399999997</v>
+        <v>3903083.5809999998</v>
       </c>
       <c r="F16">
-        <v>800813.82400000002</v>
+        <v>4003981.5929999999</v>
       </c>
       <c r="G16">
-        <v>800823.38600000006</v>
+        <v>4003995.67</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -847,22 +924,22 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>801663.34499999997</v>
+        <v>3997409.1</v>
       </c>
       <c r="C17">
-        <v>800898.19</v>
+        <v>4003750.7719999999</v>
       </c>
       <c r="D17">
-        <v>801202.18799999997</v>
+        <v>4003396.4619999998</v>
       </c>
       <c r="E17">
-        <v>801265.75800000003</v>
+        <v>3902302.548</v>
       </c>
       <c r="F17">
-        <v>800574.53799999994</v>
+        <v>4004278.98</v>
       </c>
       <c r="G17">
-        <v>800563.57</v>
+        <v>4004177.4369999999</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -870,22 +947,22 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>798820.98</v>
+        <v>3998168.7310000001</v>
       </c>
       <c r="C18">
-        <v>800697.09499999997</v>
+        <v>4003494.3259999999</v>
       </c>
       <c r="D18">
-        <v>800531.46100000001</v>
+        <v>4002501.2450000001</v>
       </c>
       <c r="E18">
-        <v>803233.83</v>
+        <v>3901718.048</v>
       </c>
       <c r="F18">
-        <v>800886.90599999996</v>
+        <v>4005551.5449999999</v>
       </c>
       <c r="G18">
-        <v>800917.88</v>
+        <v>4004644.9389999998</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -893,22 +970,22 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>798403.63899999997</v>
+        <v>3996694.3119999999</v>
       </c>
       <c r="C19">
-        <v>800599.25600000005</v>
+        <v>4003203.3709999998</v>
       </c>
       <c r="D19">
-        <v>800267.804</v>
+        <v>4001588.4649999999</v>
       </c>
       <c r="E19">
-        <v>803924.02399999998</v>
+        <v>3902736.1809999999</v>
       </c>
       <c r="F19">
-        <v>800983.08799999999</v>
+        <v>4005783.156</v>
       </c>
       <c r="G19">
-        <v>801065.81700000004</v>
+        <v>4005136.807</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -916,22 +993,22 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>798921.77500000002</v>
+        <v>4015902.727</v>
       </c>
       <c r="C20">
-        <v>800467.16899999999</v>
+        <v>4004578.02</v>
       </c>
       <c r="D20">
-        <v>799772.12</v>
+        <v>4005771.5380000002</v>
       </c>
       <c r="E20">
-        <v>9200155.2420000006</v>
+        <v>3903864.6510000001</v>
       </c>
       <c r="F20">
-        <v>9198756.0280000009</v>
+        <v>4003490.3029999998</v>
       </c>
       <c r="G20">
-        <v>801320.40700000001</v>
+        <v>4002867.9709999999</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -939,22 +1016,22 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>802666.70799999998</v>
+        <v>3997733.165</v>
       </c>
       <c r="C21">
-        <v>801048.69799999997</v>
+        <v>4002664.233</v>
       </c>
       <c r="D21">
-        <v>801625.66</v>
+        <v>3999530.0630000001</v>
       </c>
       <c r="E21">
-        <v>801951.98800000001</v>
+        <v>3902072.4789999998</v>
       </c>
       <c r="F21">
-        <v>800399.67500000005</v>
+        <v>4016446.1630000002</v>
       </c>
       <c r="G21">
-        <v>800327.64500000002</v>
+        <v>4006182.3560000001</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -962,22 +1039,22 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>802372.71100000001</v>
+        <v>3999086.64</v>
       </c>
       <c r="C22">
-        <v>800998.46900000004</v>
+        <v>4003434.875</v>
       </c>
       <c r="D22">
-        <v>801494.13500000001</v>
+        <v>4002243.1490000002</v>
       </c>
       <c r="E22">
-        <v>9201120.0460000001</v>
+        <v>3900746.3489999999</v>
       </c>
       <c r="F22">
-        <v>9199551.6070000008</v>
+        <v>4007198.801</v>
       </c>
       <c r="G22">
-        <v>800402.40399999998</v>
+        <v>4004771.6970000002</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -985,22 +1062,22 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>799270.33799999999</v>
+        <v>4013618.5550000002</v>
       </c>
       <c r="C23">
-        <v>800617.41799999995</v>
+        <v>4005603.577</v>
       </c>
       <c r="D23">
-        <v>800243.93</v>
+        <v>4009315.1340000001</v>
       </c>
       <c r="E23">
-        <v>9200302.7090000007</v>
+        <v>3900048.915</v>
       </c>
       <c r="F23">
-        <v>9198967.8460000008</v>
+        <v>4000233.0040000002</v>
       </c>
       <c r="G23">
-        <v>801066.94400000002</v>
+        <v>4001010.2930000001</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1008,22 +1085,22 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>799177.46400000004</v>
+        <v>4012170.5079999999</v>
       </c>
       <c r="C24">
-        <v>800400.31799999997</v>
+        <v>4004058.2570000002</v>
       </c>
       <c r="D24">
-        <v>799474.70499999996</v>
+        <v>4004375.6579999998</v>
       </c>
       <c r="E24">
-        <v>802700.17599999998</v>
+        <v>3903032.3280000002</v>
       </c>
       <c r="F24">
-        <v>801406.84499999997</v>
+        <v>4003703.5529999998</v>
       </c>
       <c r="G24">
-        <v>801465.42599999998</v>
+        <v>4003652.2459999998</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1031,110 +1108,196 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>798298.94900000002</v>
+        <v>3993852.5989999999</v>
       </c>
       <c r="C25">
-        <v>800397.27800000005</v>
+        <v>4002354.87</v>
       </c>
       <c r="D25">
-        <v>799662.75300000003</v>
+        <v>3999062.9339999999</v>
       </c>
       <c r="E25">
-        <v>804109.56799999997</v>
+        <v>3903835.5240000002</v>
       </c>
       <c r="F25">
-        <v>801241.446</v>
+        <v>4006498.74</v>
       </c>
       <c r="G25">
-        <v>801394.99</v>
+        <v>4006515.3640000001</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>4018385.3539999998</v>
+      </c>
+      <c r="C26">
+        <v>4006179.6069999998</v>
+      </c>
+      <c r="D26">
+        <v>4010121.09</v>
+      </c>
+      <c r="E26">
+        <v>3903266.64</v>
+      </c>
+      <c r="F26">
+        <v>4002504.8059999999</v>
+      </c>
+      <c r="G26">
+        <v>4000441.0060000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3993007.4569999999</v>
+      </c>
+      <c r="C27">
+        <v>4001419.7940000002</v>
+      </c>
+      <c r="D27">
+        <v>3995989.497</v>
+      </c>
+      <c r="E27">
+        <v>3904048.31</v>
+      </c>
+      <c r="F27">
+        <v>4010980.247</v>
+      </c>
+      <c r="G27">
+        <v>4008137.5070000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3998352.0010000002</v>
+      </c>
+      <c r="C28">
+        <v>4002941.8879999998</v>
+      </c>
+      <c r="D28">
+        <v>4000490.9879999999</v>
+      </c>
+      <c r="E28">
+        <v>3901550.5210000002</v>
+      </c>
+      <c r="F28">
+        <v>4012862.6660000002</v>
+      </c>
+      <c r="G28">
+        <v>4005680.551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B26">
+      <c r="B29">
         <f>AVERAGE(B2:B25)</f>
-        <v>800728.56800000009</v>
-      </c>
-      <c r="C26">
-        <f t="shared" ref="C26:G26" si="0">AVERAGE(C2:C25)</f>
-        <v>800805.33982608689</v>
-      </c>
-      <c r="D26">
+        <v>3999654.9012608705</v>
+      </c>
+      <c r="C29">
+        <f t="shared" ref="C29:G29" si="0">AVERAGE(C2:C25)</f>
+        <v>4003274.8099130439</v>
+      </c>
+      <c r="D29">
         <f t="shared" si="0"/>
-        <v>800876.91891304322</v>
-      </c>
-      <c r="E26">
+        <v>4001837.0761739127</v>
+      </c>
+      <c r="E29">
         <f t="shared" si="0"/>
-        <v>3358427.7388695655</v>
-      </c>
-      <c r="F26">
+        <v>3897303.2112608701</v>
+      </c>
+      <c r="F29">
         <f t="shared" si="0"/>
-        <v>3356790.6490869569</v>
-      </c>
-      <c r="G26">
+        <v>4002327.7389565213</v>
+      </c>
+      <c r="G29">
         <f t="shared" si="0"/>
-        <v>800732.8886956519</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
+        <v>4005004.7488260879</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B27">
-        <f>_xlfn.STDEV.S(B2:B25)</f>
-        <v>1793.2033199347943</v>
-      </c>
-      <c r="C27">
-        <f t="shared" ref="C27:G27" si="1">_xlfn.STDEV.S(C2:C25)</f>
-        <v>246.38549615566652</v>
-      </c>
-      <c r="D27">
+      <c r="B30">
+        <f t="shared" ref="B30:G30" si="1">_xlfn.STDEV.S(B2:B25)</f>
+        <v>7506.7768783047277</v>
+      </c>
+      <c r="C30">
         <f t="shared" si="1"/>
-        <v>791.74749682550635</v>
-      </c>
-      <c r="E27">
+        <v>1240.4110572426735</v>
+      </c>
+      <c r="D30">
         <f t="shared" si="1"/>
-        <v>3951072.6237185872</v>
-      </c>
-      <c r="F27">
+        <v>4039.9504862400663</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="1"/>
-        <v>3951270.1720035016</v>
-      </c>
-      <c r="G27">
+        <v>26048.770233024716</v>
+      </c>
+      <c r="F30">
         <f t="shared" si="1"/>
-        <v>422.46999087761242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="1" t="s">
+        <v>25375.887778255317</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>2144.8561611328169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B28">
-        <f>VAR(B2:B25)</f>
-        <v>3215578.1466251682</v>
-      </c>
-      <c r="C28">
-        <f t="shared" ref="C28:G28" si="2">VAR(C2:C25)</f>
-        <v>60705.812715873959</v>
-      </c>
-      <c r="D28">
+      <c r="B31">
+        <f t="shared" ref="B31:G31" si="2">VAR(B2:B25)</f>
+        <v>56351699.100650474</v>
+      </c>
+      <c r="C31">
         <f t="shared" si="2"/>
-        <v>626864.09872945515</v>
-      </c>
-      <c r="E28">
+        <v>1538619.5909298868</v>
+      </c>
+      <c r="D31">
         <f t="shared" si="2"/>
-        <v>15610974877898.48</v>
-      </c>
-      <c r="F28">
+        <v>16321199.93127135</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="2"/>
-        <v>15612535972164.582</v>
-      </c>
-      <c r="G28">
+        <v>678538430.65291452</v>
+      </c>
+      <c r="F31">
         <f t="shared" si="2"/>
-        <v>178480.89319212994</v>
-      </c>
+        <v>643935680.53460753</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>4600407.9519494036</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
